--- a/RegistraUSResidentes.xlsx
+++ b/RegistraUSResidentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\VisualProg\PRUBAS Funcionales RESI\EXELS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5022A6-1CDB-4871-A6D1-D785E4ABE284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A172DBF-4299-4E53-8B7D-0C35C3BCCBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{947B47C3-8618-4FEC-A9ED-74542C012D18}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Academia</t>
   </si>
@@ -103,13 +103,19 @@
   </si>
   <si>
     <t>Ingeniería en Electromecánica</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>jossrefugio27@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +144,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,15 +170,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFA5109-4B52-4F7B-A729-6A6FE5ACD800}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,9 +506,10 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +522,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -518,8 +539,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -532,8 +556,11 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -546,8 +573,11 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -560,8 +590,11 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -574,8 +607,11 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -588,15 +624,22 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{2803CCBC-1591-47BB-86F7-98B2C1F8D5EA}"/>
+    <hyperlink ref="E3:E7" r:id="rId2" display="jossrefugio27@gmail.com" xr:uid="{4AAB83AF-4F9F-4775-8CD6-4CB0029806F0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>